--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp15-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp15-Bmpr2.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Bmp15</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Bmp15</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,7 +528,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05552866666666666</v>
+        <v>0.053572</v>
       </c>
       <c r="H2">
-        <v>0.166586</v>
+        <v>0.160716</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N2">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q2">
-        <v>2.426366717990444</v>
+        <v>2.479913041409333</v>
       </c>
       <c r="R2">
-        <v>21.83730046191399</v>
+        <v>22.319217372684</v>
       </c>
       <c r="S2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="T2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05552866666666666</v>
+        <v>0.053572</v>
       </c>
       <c r="H3">
-        <v>0.166586</v>
+        <v>0.160716</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
         <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q3">
-        <v>2.599642460068889</v>
+        <v>2.508038716413334</v>
       </c>
       <c r="R3">
-        <v>23.39678214062</v>
+        <v>22.57234844772</v>
       </c>
       <c r="S3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="T3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05552866666666666</v>
+        <v>0.053572</v>
       </c>
       <c r="H4">
-        <v>0.166586</v>
+        <v>0.160716</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N4">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q4">
-        <v>1.179995457495556</v>
+        <v>2.064420716681333</v>
       </c>
       <c r="R4">
-        <v>10.61995911746</v>
+        <v>18.579786450132</v>
       </c>
       <c r="S4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="T4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05552866666666666</v>
+        <v>0.053572</v>
       </c>
       <c r="H5">
-        <v>0.166586</v>
+        <v>0.160716</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N5">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q5">
-        <v>1.004459754212444</v>
+        <v>0.8614084918306667</v>
       </c>
       <c r="R5">
-        <v>9.040137787912</v>
+        <v>7.752676426476</v>
       </c>
       <c r="S5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="T5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
     </row>
   </sheetData>
